--- a/inflacion_mensual.xlsx
+++ b/inflacion_mensual.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B398"/>
+  <dimension ref="A1:B410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3625,6 +3625,102 @@
         <v>6</v>
       </c>
     </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B399" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B400" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B401" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B402" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B403" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B404" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B405" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B406" t="n">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B407" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B408" t="n">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="B409" t="n">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B410" t="n">
+        <v>20.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
